--- a/va_facility_data_2025-02-20/Grove City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grove%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Grove City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grove%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R60f7ea27bcf043418a5eb69db3ed698e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2c3fb4937dc34f0e8f1cc80159779e2b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R63ef75b0a7b844dc8c65cc267f957249"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc3fb8ce59d8b4addae6bbb8e69c78d25"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra29018151f9d429081a13b5fbf02a597"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R19ae4d9040b9443cb8d65eff480966c3"/>
   </x:sheets>
 </x:workbook>
 </file>
